--- a/biology/Médecine/Doc_(série_télévisée,_2020)/Doc_(série_télévisée,_2020).xlsx
+++ b/biology/Médecine/Doc_(série_télévisée,_2020)/Doc_(série_télévisée,_2020).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+          <t>Doc_(série_télévisée,_2020)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doc (Doc - Nelle tue mani) est une série télévisée italienne créée par Jan Maria Michelini et Ciro Visco et diffusée depuis le 26 mars 2020 sur la Rai 1.
-La série s'inspire de l'histoire vraie du Dr Pierdante Piccioni, ancien chef du accueil et traitement des urgences de Lodi et Codogno, qui, à la suite d'un accident de la route sur le périphérique de Pavie, a oublié les 12 dernières années de sa vie[1].
-En France, elle est diffusée depuis le 6 janvier 2021 sur TF1, et au Québec depuis le 29 avril 2021 sur Moi et Cie[2] puis rediffusée en clair à partir du 17 mars 2022 sur le réseau TVA.
+La série s'inspire de l'histoire vraie du Dr Pierdante Piccioni, ancien chef du accueil et traitement des urgences de Lodi et Codogno, qui, à la suite d'un accident de la route sur le périphérique de Pavie, a oublié les 12 dernières années de sa vie.
+En France, elle est diffusée depuis le 6 janvier 2021 sur TF1, et au Québec depuis le 29 avril 2021 sur Moi et Cie puis rediffusée en clair à partir du 17 mars 2022 sur le réseau TVA.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+          <t>Doc_(série_télévisée,_2020)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite d'une tentative de meurtre, Andréa Fanti, chef de service de médecine interne de l'hôpital de Milan, perd la mémoire de ses douze dernières années. Il continue à exercer en tant que consultant et enquête sur son accident. Il se bat pour retrouver son indépendance. Il reconstruit sa vie passée, présente et future en se basant sur les quelques souvenirs qu'il lui reste ainsi que sur le témoignage de ses proches et de ses collègues.
 À la suite de son accident, il va devoir réapprendre à vivre dans un monde où tout a changé, en quelques années.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+          <t>Doc_(série_télévisée,_2020)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acteurs principaux
-Luca Argentero (VF : Jean-Pierre Michaël) : Andrea Fanti, professeur, chef de médecine interne
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Luca Argentero (VF : Jean-Pierre Michaël) : Andrea Fanti, professeur, chef de médecine interne
 Matilde Gioli (VF : Victoria Grosbois) : Giulia (VF : Julia) Giordano, médecin, assistante et ancienne liaison amoureuse d'Andrea
 Pierpaolo Spollon (it) (VF : Alexis Gilot) : Riccardo Bonvegna, interne
 Raffaele Esposito (it) (VF : Thibaut Lacour) : Marco Sardoni, médecin, remplaçant temporaire d'Andrea (saison 1)
@@ -562,53 +581,162 @@
 Giovanni Scifoni (it) (VF : Jean-Philippe Puymartin) : Enrico Sandri, neuropsychiatre, meilleur ami d'Andrea
 Alice Arcuri (VF : Ingrid Donnadieu) : Cecilia Tedeschi, virologue, nouvelle cheffe de médecine interne, ancienne amie d'Andrea
 Marco Rossetti (it) (VF : Mario Bastelica) : Damiano (VF : Damien) Cesconi, médecin (Depuis la saison 2)
-Gaetano Bruno (VF : Jérôme Cachon) : Edoardo (VF : Édouard) Valenti, chirurgien, chef de chirurgie après la mort du Dr Martel (depuis la saison 2)
-Acteurs secondaires
-Simone Gandolfo (it) (VF : Jean-Baptiste Marcenac) : Davide (VF : David), compagnon d'Agnès
+Gaetano Bruno (VF : Jérôme Cachon) : Edoardo (VF : Édouard) Valenti, chirurgien, chef de chirurgie après la mort du Dr Martel (depuis la saison 2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Doc_(série_télévisée,_2020)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simone Gandolfo (it) (VF : Jean-Baptiste Marcenac) : Davide (VF : David), compagnon d'Agnès
 Pia Lanciotti (VF : Véronique Augereau) : Fabrizia Martelli (VF : Sabrina Martel), chirurgienne, cheffe de chirurgie, décède du COVID-19, mère d'Alba (saison 1, guest star saison 2)
 Giusy Buscemi (VF : Jean-Baptiste Marcenac) : Lucia (VF : Lucie) Ferrari, psychologue (Depuis la saison 2)
 Massimo Rigo (VF : Charles Uguen) : Umberto Caruso, directeur de l'hôpital (saison 2)
 Lorenzo Frediani : Don Massimo (VF : Maxime) Gentile, prêtre, ami d'Elisa (Depuis la saison 2)
 Virginia Bernardini (VF : Mathilda Dieutre) : Zoé, infirmière
 Luca Avagliano (it) : Renato (saison 1)
- Source et légende : version française (VF) sur RS Doublage[3]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Doc_(série_télévisée,_2020)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genèse
-La série est inspirée de l'histoire vraie de Pierdante Piccioni, un médecin urgentiste qui a perdu la mémoire, en 2013, après un accident de voiture[4]. Il recommencera à travailler avec des qualités amplifiées, tel que l'empathie, grâce à son accident.
-Tournage
-Le tournage débute le 16 septembre 2019[5]. Entre mars et avril 2020, ils avaient été temporairement interrompus en raison de la pandémie du Covid-19 qui avait forcé à fermer ensemble les sociétés de production. Début juillet 2020, l’ensemble a rouvert, permettant à la production de la série de reprendre là où elle s’était arrêtée[6].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genèse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série est inspirée de l'histoire vraie de Pierdante Piccioni, un médecin urgentiste qui a perdu la mémoire, en 2013, après un accident de voiture. Il recommencera à travailler avec des qualités amplifiées, tel que l'empathie, grâce à son accident.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Doc_(série_télévisée,_2020)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute le 16 septembre 2019. Entre mars et avril 2020, ils avaient été temporairement interrompus en raison de la pandémie du Covid-19 qui avait forcé à fermer ensemble les sociétés de production. Début juillet 2020, l’ensemble a rouvert, permettant à la production de la série de reprendre là où elle s’était arrêtée.
 Il a lieu à Milan et à Rome ainsi que dans la petite commune de ce dernier, Formello (où se trouvent également les studios de Lux Vide). La série se déroule en grande partie dans la polyclinique ambrosienne, une structure reconstruite sur le plateau et située juste dans la petite municipalité romaine. Les seuls véritables décors où le tournage est filmé se trouvent à l'Université Polyclinique du Campus bio-médical et à l'université « Le campus bio-médical » de Rome.
-Fiche technique
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Doc_(série_télévisée,_2020)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre français : Doc
 Titre original : Doc - Nelle tue mani
 Création : Jan Maria Michelini et Ciro Visco
@@ -626,42 +754,84 @@
 Genres : drame médical
 Durée : 55 minutes
 Dates de diffusion : [Quand ?]
-Classification : Tout public
-Distributions internationales
-Sony a acheté les droits internationaux de la société Lux Vide pour la distribution et d’éventuelles adaptations locales, y compris celle des États-Unis[7]. La série est déjà distribuée et diffusée en Espagne puis au Portugal et également à partir de janvier 2021 en France sur TF1. La distribution a déjà été réalisée au Royaume-Uni, et sera diffusée prochainement.
+Classification : Tout public</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Doc_(série_télévisée,_2020)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Distributions internationales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sony a acheté les droits internationaux de la société Lux Vide pour la distribution et d’éventuelles adaptations locales, y compris celle des États-Unis. La série est déjà distribuée et diffusée en Espagne puis au Portugal et également à partir de janvier 2021 en France sur TF1. La distribution a déjà été réalisée au Royaume-Uni, et sera diffusée prochainement.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Doc_(série_télévisée,_2020)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Univers de la série</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Personnages
-Personnages principaux
-Andrea Fanti
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrea Fanti
 Il est le principal protagoniste de la série. Il travaille à la polyclinique Ambrosiano de Milan où il dirigeait le service de médecine interne. Il est séparé de sa femme Agnès depuis plusieurs années. Il a une fille, Caroline, et entretient une relation secrète avec sa collègue Julia. Après la mort d'un patient, Giovanni Pavesi, son père lui tire une balle dans la tête lui faisant perdre tous ses souvenirs des douze dernières années. À cause de l'amnésie, il perd son poste de médecin-chef et devient un médecin consultant, sans pouvoir décisionnel, dont le seul et unique métier est d'« aider » les internes. Dans le premier épisode de la deuxième saison, il est le premier à découvrir qu'il y a un cas de COVID-19 à l'hôpital, encore semi-inconnu à l'époque. Il a également eu un fils nommé Mathias, qui mourra subitement d'un arrêt cardiaque alors qu'ils étaient à Paris. La mort de son fils l'a rendu cynique et distant, car il s'en veut. Mais, de par son amnésie, Andrea a oublié cette partie « sombre » de sa vie. Il choisit alors, en tant que médecin, de reprendre le chemin de l'empathie et de l'écoute des patients, exactement comme il le faisait au début de sa carrière et avant la mort de Mathias. Il retrouvera sa place de chef de service à la fin de la deuxième saison.
 Julia Giordano
 Elle est médecin et officie au service de médecine interne. C'est une collègue d'Andrea et son assistante, à l'époque où il était chef de service. Elle avait une relation secrète avec lui et suit d'abord son attitude froide et distante envers les patients. Pendant l'amnésie d'Andrea, elle souffre beaucoup et se rapproche de son collègue Lorenzo avec qui elle passera également une nuit. Elle tombera enceinte. Dans le premier épisode de la deuxième saison, elle tombe malade du COVID-19 et perd le fils conçu avec Lorenzo.
@@ -691,8 +861,47 @@
 Nouveau médecin, originaire de Rome, qui arrive au service pour remplacer Lorenzo. Dès son arrivée, il commence à faire la cour à Giulia.
 Édouard Valenti
 Nouveau chef du service de chirurgie après la mort du Dr Martel. Il va commencer à fréquenter la fille de Fanti, Caroline. En outre, il s’avère qu’il consomme des stupéfiants.
-Personnages récurrents
-David
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Doc_(série_télévisée,_2020)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Univers de la série</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David
 Il est le nouveau compagnon d’Agnès après sa séparation d’Andrea. Avec elle, il prend en charge un enfant au début de la deuxième saison.
 Fabrizia Martel
 Cheffe du service de chirurgie générale et mère d’Alba Patrizi, avec laquelle elle n’a jamais eu de bons rapports. Elle meurt au début de la deuxième saison à cause du Covid-19 après s’être réconciliée avec sa fille.
@@ -706,34 +915,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Doc_(série_télévisée,_2020)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Première saison (2020)
-La première saison contient seize épisodes dépourvus de titres. Elle a été divisée en deux parties pour une diffusion en deux périodes sur Rai 1 :
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Première saison (2020)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La première saison contient seize épisodes dépourvus de titres. Elle a été divisée en deux parties pour une diffusion en deux périodes sur Rai 1 :
 les huit premiers épisodes sont diffusés du 26 mars au 16 avril 2020,
 les huit suivants sont diffusés du 15 octobre au 19 novembre 2020.
 Mémoire enfouie (Amnesia)
@@ -751,9 +965,43 @@
 Libres d'aimer (Egoismi)
 Avant qu'il ne soit trop tard (Perdonare e perdonarsi)
 Complots (Veleni)
-L'heure des choix (Io ci sono)
-Deuxième saison (2022)
-Cette deuxième saison est diffusée du 13 janvier au 17 mars 2022 en Italie. En France, la saison est diffusée à partir du 1er juin 2022.
+L'heure des choix (Io ci sono)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Doc_(série_télévisée,_2020)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2022)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cette deuxième saison est diffusée du 13 janvier au 17 mars 2022 en Italie. En France, la saison est diffusée à partir du 1er juin 2022.
 Une autre vie (Una vita nuova)
 L'ennemi silencieux (La guerra è finita)
 Chercher l'erreur (Sfide)
@@ -769,9 +1017,43 @@
 Le mur du silence (Così lontani, così vicini)
 Des mots pour le dire (Senza nome)
 L’heure de vérité (Stigma)
-Se relever ensemble (Mutazioni)
-Troisième saison (2024)
-Cette troisième saison est diffusée depuis le 11 janvier jusqu'au 7 mars 2024 en Italie. Le tournage a commencé le 15 mai 2023 dans les studios Rai de la ville au nord de Rome. En France, la saison est diffusée à partir du 20 mars 2024[8].
+Se relever ensemble (Mutazioni)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Doc_(série_télévisée,_2020)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Troisième saison (2024)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cette troisième saison est diffusée depuis le 11 janvier jusqu'au 7 mars 2024 en Italie. Le tournage a commencé le 15 mai 2023 dans les studios Rai de la ville au nord de Rome. En France, la saison est diffusée à partir du 20 mars 2024.
 Oublier seul et se souvenir ensemble (Risvegli)
 Comme dans un rêve (Lascar andare)
 D'une main de maître (Perfetta)
@@ -791,64 +1073,68 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Doc_(série_télévisée,_2020)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pistes de la musique sont composées par Tony Brundo et chantées par Nico Bruno.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Doc_(série_télévisée,_2020)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2020)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Adaptation américaine</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'hiver 2023, Barbie Kligman développe une version américaine de la série pour le réseau Fox[9]. La série est commandée le 3 avril 2023[10]. Le casting est en cours.
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'hiver 2023, Barbie Kligman développe une version américaine de la série pour le réseau Fox. La série est commandée le 3 avril 2023. Le casting est en cours.
 </t>
         </is>
       </c>
